--- a/medicine/Bioéthique/Statistiques_sur_l'avortement_aux_États-Unis/Statistiques_sur_l'avortement_aux_États-Unis.xlsx
+++ b/medicine/Bioéthique/Statistiques_sur_l'avortement_aux_États-Unis/Statistiques_sur_l'avortement_aux_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistiques_sur_l%27avortement_aux_%C3%89tats-Unis</t>
+          <t>Statistiques_sur_l'avortement_aux_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les avortements sont pratiqués dans les 50 États, mais ils sont plus fréquents dans certains États que dans d'autres. 
-L'Institut Guttmacher a réalisé une étude montrant quels sont les 25 États où le nombre d’avortements est le plus élevé[1]. Les États varient considérablement en termes de population totale, de sorte que le nombre total d'avortements est présenté en termes d'avortements pour 1000 femmes âgées de 15 à 45 ans.  
-Cette liste comprend les totaux de 25 États en 2008 et inclut les États qui n’ont pas envoyé de données au Center for Disease Control cette année-là. Par exemple, la Californie et la Floride ont enregistré un total combiné de 308 550 avortements en 2008[1] et n’ont pas envoyé de rapport à la CDC cette année-là. Le Delaware a le plus d'avortements pour 1 000 femmes (15 à 44 ans) à 40 ans[1]. Le Tennessee se classait au 25e rang avec 15,5 femmes sur 1 000 (15 à 44 ans)[1]. La valeur médiane est de 19,2 avortements pour 1 000 femmes (15 à 44 ans)[1] et correspond au Kansas au 13e rang. La valeur moyenne pour les 25 États ayant connu les avortements les plus élevés en 2008 est de 23,31 avortements pour 1 000 femmes (15 à 44 ans)[1]. Le nombre total d'avortements pratiqués en 2008 dans ces 25 États comptant le plus d'avortements dépasse un million. 
+L'Institut Guttmacher a réalisé une étude montrant quels sont les 25 États où le nombre d’avortements est le plus élevé. Les États varient considérablement en termes de population totale, de sorte que le nombre total d'avortements est présenté en termes d'avortements pour 1000 femmes âgées de 15 à 45 ans.  
+Cette liste comprend les totaux de 25 États en 2008 et inclut les États qui n’ont pas envoyé de données au Center for Disease Control cette année-là. Par exemple, la Californie et la Floride ont enregistré un total combiné de 308 550 avortements en 2008 et n’ont pas envoyé de rapport à la CDC cette année-là. Le Delaware a le plus d'avortements pour 1 000 femmes (15 à 44 ans) à 40 ans. Le Tennessee se classait au 25e rang avec 15,5 femmes sur 1 000 (15 à 44 ans). La valeur médiane est de 19,2 avortements pour 1 000 femmes (15 à 44 ans) et correspond au Kansas au 13e rang. La valeur moyenne pour les 25 États ayant connu les avortements les plus élevés en 2008 est de 23,31 avortements pour 1 000 femmes (15 à 44 ans). Le nombre total d'avortements pratiqués en 2008 dans ces 25 États comptant le plus d'avortements dépasse un million. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistiques_sur_l%27avortement_aux_%C3%89tats-Unis</t>
+          <t>Statistiques_sur_l'avortement_aux_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>CDC</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Centres pour le contrôle et la prévention des maladies (Centers for Disease Control and Prevention, CDC) ont commencé les rapports de surveillance en 1969 afin de documenter le nombre et les caractéristiques des femmes obtenant un avortement légal. De nombreux États surveillent l'avortement. Le CDC compile les informations recueillies par les États pour produire des estimations nationales. Le système de surveillance du CDC compile des informations sur les avortements légaux uniquement. 
 Entre 1970 et 2015, le CDC rapporte près de 45,7 millions d'avortements provoqués légalement. 
 Il est à noter que le nombre d'avortements déclarés a fortement diminué entre 1997 et 1998. Cela s'explique par le fait que les zones de rapport de la CDC ont été réduites de 52 en 1997 à 47 en 1998. Le déclin réel de 1997 à 1998 dans ces 47 zones déclarantes n’est que de 2 %. 
-La Californie, le Maryland et le New Hampshire ne font pas de rapports au CDC sur la surveillance des avortements. [2] 
+La Californie, le Maryland et le New Hampshire ne font pas de rapports au CDC sur la surveillance des avortements.  
 </t>
         </is>
       </c>
